--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.marceau\PycharmProjects\valexa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blind\PycharmProjects\valexa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC4E02-A9D5-46BB-937F-545079F3CCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF56548-6614-46E9-8E05-4E878E2454F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Series</t>
   </si>
@@ -44,33 +44,6 @@
   </si>
   <si>
     <t>Replicate 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27.6</t>
   </si>
 </sst>
 </file>
@@ -390,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265CE9DE-C366-40C6-827A-C3F2B0831DFA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,8 +396,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>1.9</v>
       </c>
       <c r="D2">
         <v>36539</v>
@@ -440,8 +413,8 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3">
+        <v>1.9</v>
       </c>
       <c r="D3">
         <v>60086</v>
@@ -457,8 +430,8 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4">
+        <v>1.9</v>
       </c>
       <c r="D4">
         <v>57695</v>
@@ -474,8 +447,8 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5">
+        <v>4.7</v>
       </c>
       <c r="D5">
         <v>102066</v>
@@ -491,8 +464,8 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C6">
+        <v>4.7</v>
       </c>
       <c r="D6">
         <v>99897</v>
@@ -508,8 +481,8 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="C7">
+        <v>4.7</v>
       </c>
       <c r="D7">
         <v>115298</v>
@@ -525,8 +498,8 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C8">
+        <v>9.5</v>
       </c>
       <c r="D8">
         <v>188665</v>
@@ -542,8 +515,8 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9">
+        <v>9.5</v>
       </c>
       <c r="D9">
         <v>188657</v>
@@ -559,8 +532,8 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>9.5</v>
       </c>
       <c r="D10">
         <v>221678</v>
@@ -576,8 +549,8 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
+      <c r="C11">
+        <v>28.5</v>
       </c>
       <c r="D11">
         <v>595999</v>
@@ -593,8 +566,8 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
+      <c r="C12">
+        <v>28.5</v>
       </c>
       <c r="D12">
         <v>520857</v>
@@ -610,8 +583,8 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
+      <c r="C13">
+        <v>28.5</v>
       </c>
       <c r="D13">
         <v>557258</v>
@@ -628,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +612,7 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,218 +625,117 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>0.9</v>
       </c>
       <c r="D2">
         <v>43083</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>24719</v>
+      </c>
+      <c r="F2">
+        <v>35684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="D3">
-        <v>24719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117767</v>
+      </c>
+      <c r="E3">
+        <v>112319</v>
+      </c>
+      <c r="F3">
+        <v>115840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>9.1999999999999993</v>
       </c>
       <c r="D4">
-        <v>35684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238120</v>
+      </c>
+      <c r="E4">
+        <v>202957</v>
+      </c>
+      <c r="F4">
+        <v>249807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>18.399999999999999</v>
       </c>
       <c r="D5">
-        <v>117767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450132</v>
+      </c>
+      <c r="E5">
+        <v>398342</v>
+      </c>
+      <c r="F5">
+        <v>440029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>27.6</v>
       </c>
       <c r="D6">
-        <v>112319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>115840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>238120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>202957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>249807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>450132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>398342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>440029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
         <v>682393</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
+      <c r="E6">
         <v>611523</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
+      <c r="F6">
         <v>633748</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>